--- a/src/data/Estudo Estoque Telha.xlsx
+++ b/src/data/Estudo Estoque Telha.xlsx
@@ -46996,7 +46996,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
